--- a/testData/application_test_data.xlsx
+++ b/testData/application_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="add_app" sheetId="2" r:id="rId1"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>172.16.10.200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Administrator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -90,10 +86,6 @@
     <t>app_server2003</t>
   </si>
   <si>
-    <t>app_server2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>修改应用发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -161,10 +153,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>gyr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +206,6 @@
   </si>
   <si>
     <t>test_F06_S09_T11_add_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>server2003应用发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -327,10 +311,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>app_server2003</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>hH@1234</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,6 +392,26 @@
   </si>
   <si>
     <t>请输入地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.16.20.239</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>server2012应用发布</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_server2012</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gyrapp1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -886,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -899,7 +899,7 @@
     <col min="3" max="3" width="9.875" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
     <col min="5" max="5" width="13.5" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="17.875" customWidth="1"/>
@@ -908,34 +908,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -946,49 +946,49 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="E2" s="1">
         <v>3389</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="12"/>
+      <c r="D4" s="14"/>
       <c r="E4" s="7"/>
-      <c r="F4" s="13"/>
+      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -998,15 +998,12 @@
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="14"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-    </row>
-    <row r="6" spans="1:10">
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1149,15 +1146,6 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-    </row>
-    <row r="22" spans="1:7" ht="18" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1168,10 +1156,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1179,7 +1167,7 @@
     <col min="1" max="1" width="17.375" customWidth="1"/>
     <col min="2" max="2" width="10.875" customWidth="1"/>
     <col min="3" max="3" width="10.125" customWidth="1"/>
-    <col min="4" max="4" width="14.375" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
     <col min="5" max="5" width="14.25" customWidth="1"/>
     <col min="6" max="6" width="9.375" customWidth="1"/>
     <col min="7" max="7" width="16.125" customWidth="1"/>
@@ -1191,42 +1179,42 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="I1" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="J1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>93</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1235,64 +1223,25 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>7</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1305,7 +1254,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1323,52 +1272,52 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="J1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -1378,27 +1327,27 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1408,25 +1357,25 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -1436,25 +1385,25 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -1464,21 +1413,21 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>3389</v>
@@ -1492,53 +1441,53 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E7" s="1">
         <v>3389</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
         <v>3389</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1546,27 +1495,27 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="1">
         <v>3389</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -1576,27 +1525,27 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1">
         <v>3389</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -1606,7 +1555,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1621,7 +1570,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1633,13 +1582,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>0</v>
@@ -1647,38 +1596,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1695,7 +1644,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1708,30 +1657,30 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1744,8 +1693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1762,104 +1711,104 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>96</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1894,25 +1843,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>0</v>
@@ -1920,24 +1869,24 @@
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="10" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1965,16 +1914,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -1982,19 +1931,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/testData/application_test_data.xlsx
+++ b/testData/application_test_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="add_app" sheetId="2" r:id="rId1"/>
@@ -83,9 +83,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>app_server2003</t>
-  </si>
-  <si>
     <t>修改应用发布</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,6 +409,10 @@
   </si>
   <si>
     <t>gyrapp1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app_server2012</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -908,10 +909,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
@@ -946,10 +947,10 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1">
         <v>3389</v>
@@ -964,10 +965,10 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1159,7 +1160,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1179,34 +1180,34 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>88</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>7</v>
@@ -1214,7 +1215,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -1223,10 +1224,10 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
@@ -1240,7 +1241,7 @@
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1254,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1272,10 +1273,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -1304,20 +1305,20 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -1327,27 +1328,27 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>42</v>
-      </c>
       <c r="D3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1357,25 +1358,25 @@
       </c>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -1385,25 +1386,25 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -1413,21 +1414,21 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
         <v>3389</v>
@@ -1441,53 +1442,53 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
         <v>3389</v>
       </c>
       <c r="F7" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
         <v>3389</v>
       </c>
       <c r="F8" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -1495,27 +1496,27 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" s="1">
         <v>3389</v>
       </c>
       <c r="F9" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="5">
         <v>1</v>
@@ -1525,27 +1526,27 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>15</v>
+        <v>97</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="1">
         <v>3389</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G10" s="5">
         <v>1</v>
@@ -1555,7 +1556,7 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1582,10 +1583,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
@@ -1596,38 +1597,38 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1657,10 +1658,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>80</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>8</v>
@@ -1671,16 +1672,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1693,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1711,104 +1712,104 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="H3" s="10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1843,25 +1844,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>0</v>
@@ -1869,24 +1870,24 @@
     </row>
     <row r="2" spans="1:8" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1914,16 +1915,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>79</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>80</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>0</v>
@@ -1931,19 +1932,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
